--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/PERNAMBUCO/UPC/PARA/14-06-2020_para_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/PERNAMBUCO/UPC/PARA/14-06-2020_para_report_EPG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D891"/>
+  <dimension ref="A1:D1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16403,6 +16403,9618 @@
         <v>458.157952770323</v>
       </c>
     </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>0.2315763634637339</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>0.4631527269274679</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>0.6947290903912019</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>0.6947290903912019</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>0.6947290903912019</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>0.6947290903912019</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>0.6947290903912019</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>0.4631527269274679</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>0.2315763634637339</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>2.778916361564808</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>9.726207265476827</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>15.28403998860644</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>15.05246362514271</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>15.05246362514271</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>15.05246362514271</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>21.72186289289825</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>17.50717307785829</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>10.14304471971155</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>7.966226903152448</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>8.962005266046503</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="1" t="n">
+        <v>928</v>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>14.58931089821524</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" s="1" t="n">
+        <v>929</v>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>19.86925198518838</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" s="1" t="n">
+        <v>930</v>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>23.9449959821501</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" s="1" t="n">
+        <v>931</v>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>18.52610907709872</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" s="1" t="n">
+        <v>932</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>13.19985271743284</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" s="1" t="n">
+        <v>933</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>75.26231812571355</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" s="1" t="n">
+        <v>934</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>100.7357181067243</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" s="1" t="n">
+        <v>935</v>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>118.4513099117</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" s="1" t="n">
+        <v>936</v>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>145.1983798917612</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" s="1" t="n">
+        <v>937</v>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>143.5773453475151</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" s="1" t="n">
+        <v>938</v>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>146.7267838906219</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" s="1" t="n">
+        <v>939</v>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>161.4550406069153</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" s="1" t="n">
+        <v>940</v>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>122.2507061149282</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" s="1" t="n">
+        <v>941</v>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>145.6147762481608</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" s="1" t="n">
+        <v>942</v>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>151.9458534763417</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" s="1" t="n">
+        <v>943</v>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>148.7803148622512</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" s="1" t="n">
+        <v>944</v>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>129.7145225838232</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" s="1" t="n">
+        <v>945</v>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>141.4876443534019</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" s="1" t="n">
+        <v>946</v>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>141.8736049591747</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" s="1" t="n">
+        <v>947</v>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>91.46604710064737</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" s="1" t="n">
+        <v>948</v>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>66.94872667736549</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" s="1" t="n">
+        <v>949</v>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>56.17463636721528</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" s="1" t="n">
+        <v>950</v>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>45.6359820265865</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" s="1" t="n">
+        <v>951</v>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>78.47158056271513</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" s="1" t="n">
+        <v>952</v>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>84.36133940680942</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" s="1" t="n">
+        <v>953</v>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>134.9028807327694</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" s="1" t="n">
+        <v>954</v>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>257.8409826865792</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" s="1" t="n">
+        <v>955</v>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>717.96391885873</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" s="1" t="n">
+        <v>956</v>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>1076.289745258281</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" s="1" t="n">
+        <v>957</v>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>1637.708042415527</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" s="1" t="n">
+        <v>958</v>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>2113.365892970036</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" s="1" t="n">
+        <v>959</v>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>2930.830455997017</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" s="1" t="n">
+        <v>960</v>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>2984.271447283558</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" s="1" t="n">
+        <v>961</v>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>3257.748884847636</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" s="1" t="n">
+        <v>962</v>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>3254.380524211756</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" s="1" t="n">
+        <v>963</v>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>2898.061304883219</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" s="1" t="n">
+        <v>964</v>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>2350.332650720087</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" s="1" t="n">
+        <v>965</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>1895.361933682569</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" s="1" t="n">
+        <v>966</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>1310.026082655792</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" s="1" t="n">
+        <v>967</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>1041.721187989211</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" s="1" t="n">
+        <v>968</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>770.0930358383832</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" s="1" t="n">
+        <v>969</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>520.2394814844106</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" s="1" t="n">
+        <v>970</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>424.264106816756</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" s="1" t="n">
+        <v>971</v>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>370.1485829709648</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" s="1" t="n">
+        <v>972</v>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>475.8052572023578</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" s="1" t="n">
+        <v>973</v>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>745.9821095234038</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" s="1" t="n">
+        <v>974</v>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>1138.3905977085</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" s="1" t="n">
+        <v>975</v>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>1043.941313340126</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" s="1" t="n">
+        <v>976</v>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>1148.10628469864</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" s="1" t="n">
+        <v>977</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>1082.06296865432</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" s="1" t="n">
+        <v>978</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Benevides</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>1077.851155984228</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" s="1" t="n">
+        <v>979</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" s="1" t="n">
+        <v>980</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" s="1" t="n">
+        <v>981</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" s="1" t="n">
+        <v>982</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" s="1" t="n">
+        <v>983</v>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" s="1" t="n">
+        <v>984</v>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" s="1" t="n">
+        <v>985</v>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="1" t="n">
+        <v>986</v>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" s="1" t="n">
+        <v>987</v>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" s="1" t="n">
+        <v>988</v>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" s="1" t="n">
+        <v>989</v>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="1" t="n">
+        <v>990</v>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" s="1" t="n">
+        <v>991</v>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" s="1" t="n">
+        <v>992</v>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" s="1" t="n">
+        <v>993</v>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" s="1" t="n">
+        <v>994</v>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" s="1" t="n">
+        <v>995</v>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" s="1" t="n">
+        <v>996</v>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" s="1" t="n">
+        <v>997</v>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="1" t="n">
+        <v>998</v>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="1" t="n">
+        <v>999</v>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="1" t="n">
+        <v>1001</v>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="1" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="1" t="n">
+        <v>1003</v>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="1" t="n">
+        <v>1004</v>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="1" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="1" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>0.8192994170684647</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="1" t="n">
+        <v>1013</v>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>7.373694753616182</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="1" t="n">
+        <v>1014</v>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>24.57898251205394</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="1" t="n">
+        <v>1015</v>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>54.48341123505291</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="1" t="n">
+        <v>1016</v>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>81.11064228977801</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="1" t="n">
+        <v>1017</v>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>103.6413762591608</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="1" t="n">
+        <v>1018</v>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>152.3896915747344</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="1" t="n">
+        <v>1019</v>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>165.4814135099743</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="1" t="n">
+        <v>1020</v>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>169.1501881055235</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="1" t="n">
+        <v>1021</v>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>148.7771434097684</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="1" t="n">
+        <v>1022</v>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>190.6107030836933</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="1" t="n">
+        <v>1023</v>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>180.3241871405173</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="1" t="n">
+        <v>1024</v>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>153.4985697476146</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="1" t="n">
+        <v>1025</v>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>138.865030336774</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="1" t="n">
+        <v>1026</v>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>156.0666810708559</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="1" t="n">
+        <v>1027</v>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>147.0721232427997</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="1" t="n">
+        <v>1028</v>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>142.1767376087337</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="1" t="n">
+        <v>1029</v>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>100.0483281617684</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="1" t="n">
+        <v>1030</v>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>90.3236204687184</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="1" t="n">
+        <v>1031</v>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>76.98434181263714</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="1" t="n">
+        <v>1032</v>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1034" t="n">
+        <v>74.22439067469402</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="1" t="n">
+        <v>1033</v>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1035" t="n">
+        <v>64.38763747522998</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="1" t="n">
+        <v>1034</v>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1036" t="n">
+        <v>62.652711893884</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="1" t="n">
+        <v>1035</v>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1037" t="n">
+        <v>68.61329014347879</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="1" t="n">
+        <v>1036</v>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1038" t="n">
+        <v>59.00954327381361</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="1" t="n">
+        <v>1037</v>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1039" t="n">
+        <v>60.77007122638004</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1040" t="n">
+        <v>77.6519135741929</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="1" t="n">
+        <v>1039</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1041" t="n">
+        <v>94.10210331946274</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1042" t="n">
+        <v>88.93690243567964</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1043" t="n">
+        <v>80.59858015411024</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1044" t="n">
+        <v>72.23522372368593</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1045" t="n">
+        <v>71.9357892938764</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1046" t="n">
+        <v>57.91829152923081</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1047" t="n">
+        <v>48.06438355110885</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1048" t="n">
+        <v>46.97189565958281</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1049" t="n">
+        <v>99.6796557013016</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1050" t="n">
+        <v>250.8845551969377</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1051" t="n">
+        <v>342.4281420766627</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1052" t="n">
+        <v>494.5929696555436</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1053" t="n">
+        <v>661.7555873427178</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1054" t="n">
+        <v>700.486371246804</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1055" t="n">
+        <v>649.8999154235911</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1056" t="n">
+        <v>645.998703521985</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1057" t="n">
+        <v>524.1066016723727</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1058" t="n">
+        <v>412.3879801823119</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1059" t="n">
+        <v>270.1951051270246</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>135.7003017334103</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1061" t="n">
+        <v>172.1508311895111</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1062" t="n">
+        <v>236.6330355400604</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>282.9055899354291</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1064" t="n">
+        <v>267.0256183016975</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>361.5834618298848</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1066" t="n">
+        <v>314.2754086918973</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1067" t="n">
+        <v>268.0584368254418</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1068" t="n">
+        <v>218.9337094553001</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>Santa Izabel do Pará</t>
+        </is>
+      </c>
+      <c r="D1069" t="n">
+        <v>182.8845351042877</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="1" t="n">
+        <v>1090</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="1" t="n">
+        <v>1091</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="1" t="n">
+        <v>1092</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="1" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="1" t="n">
+        <v>1094</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="1" t="n">
+        <v>1095</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
+        <v>0.6899977920070656</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="1" t="n">
+        <v>1096</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>4.139986752042393</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1099" t="n">
+        <v>6.899977920070656</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="1" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1100" t="n">
+        <v>8.279973504084786</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="1" t="n">
+        <v>1099</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1101" t="n">
+        <v>8.279973504084786</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="1" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1102" t="n">
+        <v>8.279973504084786</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="1" t="n">
+        <v>1101</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1103" t="n">
+        <v>8.279973504084786</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="1" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1104" t="n">
+        <v>16.55994700816957</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="1" t="n">
+        <v>1103</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1105" t="n">
+        <v>38.63987635239567</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="1" t="n">
+        <v>1104</v>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1106" t="n">
+        <v>48.29984544049459</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="1" t="n">
+        <v>1105</v>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1107" t="n">
+        <v>57.95981452859351</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="1" t="n">
+        <v>1106</v>
+      </c>
+      <c r="B1108" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1108" t="n">
+        <v>57.95981452859351</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="1" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B1109" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1109" t="n">
+        <v>57.95981452859351</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="1" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B1110" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1110" t="n">
+        <v>57.95981452859351</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="1" t="n">
+        <v>1109</v>
+      </c>
+      <c r="B1111" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1111" t="n">
+        <v>45.53985427246632</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="1" t="n">
+        <v>1110</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1112" t="n">
+        <v>24.1499227202473</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="1" t="n">
+        <v>1111</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1113" t="n">
+        <v>16.55994700816957</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="1" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1114" t="n">
+        <v>8.279973504084786</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="1" t="n">
+        <v>1113</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1115" t="n">
+        <v>41.39986752042393</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="1" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1116" t="n">
+        <v>68.99977920070657</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="1" t="n">
+        <v>1115</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1117" t="n">
+        <v>144.8995363214838</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="1" t="n">
+        <v>1116</v>
+      </c>
+      <c r="B1118" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1118" t="n">
+        <v>173.8794435857805</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="1" t="n">
+        <v>1117</v>
+      </c>
+      <c r="B1119" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1119" t="n">
+        <v>166.9794656657099</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="1" t="n">
+        <v>1118</v>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1120" t="n">
+        <v>160.9074850960477</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="1" t="n">
+        <v>1119</v>
+      </c>
+      <c r="B1121" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1121" t="n">
+        <v>153.31750938397</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="1" t="n">
+        <v>1120</v>
+      </c>
+      <c r="B1122" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1122" t="n">
+        <v>147.3068619513751</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="1" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B1123" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1123" t="n">
+        <v>124.8282672162116</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="1" t="n">
+        <v>1122</v>
+      </c>
+      <c r="B1124" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1124" t="n">
+        <v>107.7009886901695</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="1" t="n">
+        <v>1123</v>
+      </c>
+      <c r="B1125" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1125" t="n">
+        <v>141.3575476558475</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="1" t="n">
+        <v>1124</v>
+      </c>
+      <c r="B1126" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1126" t="n">
+        <v>168.2827948283899</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="1" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B1127" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1127" t="n">
+        <v>392.8387429160227</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="1" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B1128" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1128" t="n">
+        <v>532.9849611147912</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="1" t="n">
+        <v>1127</v>
+      </c>
+      <c r="B1129" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1129" t="n">
+        <v>647.6779274306323</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="1" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1130" t="n">
+        <v>712.106471259292</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="1" t="n">
+        <v>1129</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1131" t="n">
+        <v>648.3548570826392</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="1" t="n">
+        <v>1130</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1132" t="n">
+        <v>521.6505276880083</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="1" t="n">
+        <v>1131</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1133" t="n">
+        <v>439.8866605445044</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="1" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1134" t="n">
+        <v>362.2633609592651</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="1" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1135" t="n">
+        <v>652.0740497266772</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="1" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B1136" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1136" t="n">
+        <v>724.5267219185303</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="1" t="n">
+        <v>1135</v>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1137" t="n">
+        <v>950.5881197341785</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="1" t="n">
+        <v>1136</v>
+      </c>
+      <c r="B1138" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1138" t="n">
+        <v>1481.846924756507</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="1" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B1139" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1139" t="n">
+        <v>1923.713844115699</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="1" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1140" t="n">
+        <v>1927.853830867741</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="1" t="n">
+        <v>1139</v>
+      </c>
+      <c r="B1141" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1141" t="n">
+        <v>1703.114286876387</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="1" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B1142" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1142" t="n">
+        <v>1400.715404928749</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="1" t="n">
+        <v>1141</v>
+      </c>
+      <c r="B1143" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1143" t="n">
+        <v>1049.320862952459</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="1" t="n">
+        <v>1142</v>
+      </c>
+      <c r="B1144" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1144" t="n">
+        <v>720.5701651255744</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="1" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B1145" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1145" t="n">
+        <v>416.1258893472566</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="1" t="n">
+        <v>1144</v>
+      </c>
+      <c r="B1146" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1146" t="n">
+        <v>140.1723479283226</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="1" t="n">
+        <v>1145</v>
+      </c>
+      <c r="B1147" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1147" t="n">
+        <v>240.8426013132452</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="1" t="n">
+        <v>1146</v>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1148" t="n">
+        <v>354.2327690525416</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="1" t="n">
+        <v>1147</v>
+      </c>
+      <c r="B1149" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1149" t="n">
+        <v>343.6094913587186</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="1" t="n">
+        <v>1148</v>
+      </c>
+      <c r="B1150" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1150" t="n">
+        <v>497.0305004114896</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="1" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B1151" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1151" t="n">
+        <v>517.7743431221021</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="1" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B1152" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1152" t="n">
+        <v>313.5924965040112</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="1" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B1153" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1153" t="n">
+        <v>227.7086804231317</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="1" t="n">
+        <v>1152</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1154" t="n">
+        <v>262.046375737312</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" s="1" t="n">
+        <v>1153</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1155" t="n">
+        <v>227.8740110629049</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="1" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1156" t="n">
+        <v>180.24668944436</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="1" t="n">
+        <v>1155</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1157" t="n">
+        <v>112.402731220351</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="1" t="n">
+        <v>1156</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Santa Bárbara do Pará</t>
+        </is>
+      </c>
+      <c r="D1158" t="n">
+        <v>95.65878480097956</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="1" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" s="1" t="n">
+        <v>1158</v>
+      </c>
+      <c r="B1160" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" s="1" t="n">
+        <v>1159</v>
+      </c>
+      <c r="B1161" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="1" t="n">
+        <v>1160</v>
+      </c>
+      <c r="B1162" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="1" t="n">
+        <v>1161</v>
+      </c>
+      <c r="B1163" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" s="1" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B1164" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" s="1" t="n">
+        <v>1163</v>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" s="1" t="n">
+        <v>1164</v>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" s="1" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" s="1" t="n">
+        <v>1166</v>
+      </c>
+      <c r="B1168" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" s="1" t="n">
+        <v>1167</v>
+      </c>
+      <c r="B1169" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" s="1" t="n">
+        <v>1168</v>
+      </c>
+      <c r="B1170" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="1" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B1171" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="1" t="n">
+        <v>1170</v>
+      </c>
+      <c r="B1172" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="1" t="n">
+        <v>1171</v>
+      </c>
+      <c r="B1173" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="1" t="n">
+        <v>1172</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="1" t="n">
+        <v>1173</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="1" t="n">
+        <v>1174</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="1" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="1" t="n">
+        <v>1176</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="1" t="n">
+        <v>1177</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="1" t="n">
+        <v>1178</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="1" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="1" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="1" t="n">
+        <v>1181</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="1" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="1" t="n">
+        <v>1183</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="1" t="n">
+        <v>1184</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="1" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="1" t="n">
+        <v>1186</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="1" t="n">
+        <v>1187</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="1" t="n">
+        <v>1188</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="1" t="n">
+        <v>1189</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="1" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1192" t="n">
+        <v>1.26185265206376</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="1" t="n">
+        <v>1191</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1193" t="n">
+        <v>3.925763806420587</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="1" t="n">
+        <v>1192</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1194" t="n">
+        <v>6.169057410089493</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="1" t="n">
+        <v>1193</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1195" t="n">
+        <v>6.72988081100672</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="1" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1196" t="n">
+        <v>24.67622964035797</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="1" t="n">
+        <v>1195</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1197" t="n">
+        <v>28.27484646291018</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="1" t="n">
+        <v>1196</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1198" t="n">
+        <v>44.34010013501823</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="1" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1199" t="n">
+        <v>71.78539531740502</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="1" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1200" t="n">
+        <v>80.75856973208066</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="1" t="n">
+        <v>1199</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1201" t="n">
+        <v>85.27186281565261</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="1" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1202" t="n">
+        <v>99.07880082871007</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="1" t="n">
+        <v>1201</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1203" t="n">
+        <v>103.3699495781525</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="1" t="n">
+        <v>1202</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1204" t="n">
+        <v>94.6124764715219</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="1" t="n">
+        <v>1203</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1205" t="n">
+        <v>154.9628311139562</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="1" t="n">
+        <v>1204</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1206" t="n">
+        <v>183.9334251807245</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="1" t="n">
+        <v>1205</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1207" t="n">
+        <v>192.488468212386</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="1" t="n">
+        <v>1206</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1208" t="n">
+        <v>234.5624586110567</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="1" t="n">
+        <v>1207</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1209" t="n">
+        <v>322.5505850860397</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="1" t="n">
+        <v>1208</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1210" t="n">
+        <v>332.5835555865686</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="1" t="n">
+        <v>1209</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1211" t="n">
+        <v>462.4668425179484</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="1" t="n">
+        <v>1210</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1212" t="n">
+        <v>449.7398219885245</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="1" t="n">
+        <v>1211</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1213" t="n">
+        <v>471.3625118784826</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="1" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1214" t="n">
+        <v>438.15755028377</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="1" t="n">
+        <v>1213</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1215" t="n">
+        <v>493.9247452084125</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="1" t="n">
+        <v>1214</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1216" t="n">
+        <v>411.3188631281693</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="1" t="n">
+        <v>1215</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1217" t="n">
+        <v>410.8110411712226</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="1" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1218" t="n">
+        <v>414.604799029359</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="1" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1219" t="n">
+        <v>385.4924266516969</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="1" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1220" t="n">
+        <v>313.5690996986276</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="1" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1221" t="n">
+        <v>264.3742973698097</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="1" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1222" t="n">
+        <v>221.1672117567933</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="1" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1223" t="n">
+        <v>202.0536273289329</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="1" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1224" t="n">
+        <v>197.1349002575881</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="1" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1225" t="n">
+        <v>158.7277102387587</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="1" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1226" t="n">
+        <v>152.0375537410739</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="1" t="n">
+        <v>1225</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1227" t="n">
+        <v>151.9872966913287</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1228" t="n">
+        <v>163.4275272336392</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="1" t="n">
+        <v>1227</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1229" t="n">
+        <v>146.6531129859765</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="1" t="n">
+        <v>1228</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1230" t="n">
+        <v>149.698312408288</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="1" t="n">
+        <v>1229</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1231" t="n">
+        <v>141.4918473091629</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="1" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1232" t="n">
+        <v>117.6495760406977</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="1" t="n">
+        <v>1231</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1233" t="n">
+        <v>92.15768687018665</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="1" t="n">
+        <v>1232</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1234" t="n">
+        <v>78.98031897691718</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="1" t="n">
+        <v>1233</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1235" t="n">
+        <v>106.4208207594674</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1236" t="n">
+        <v>173.6213104684712</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="1" t="n">
+        <v>1235</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1237" t="n">
+        <v>216.8734841447339</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="1" t="n">
+        <v>1236</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1238" t="n">
+        <v>255.4895557685844</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="1" t="n">
+        <v>1237</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1239" t="n">
+        <v>477.8699115494385</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="1" t="n">
+        <v>1238</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1240" t="n">
+        <v>506.544676792238</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="1" t="n">
+        <v>1239</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1241" t="n">
+        <v>475.5520139806988</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="1" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1242" t="n">
+        <v>460.9589488785152</v>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="1" t="n">
+        <v>1241</v>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1243" t="n">
+        <v>738.0322266588146</v>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="1" t="n">
+        <v>1242</v>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1244" t="n">
+        <v>651.3014694313068</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="1" t="n">
+        <v>1243</v>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1245" t="n">
+        <v>566.4299897989614</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="1" t="n">
+        <v>1244</v>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1246" t="n">
+        <v>449.4263812784324</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>Breves</t>
+        </is>
+      </c>
+      <c r="D1247" t="n">
+        <v>424.6401862653454</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="1" t="n">
+        <v>1249</v>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="1" t="n">
+        <v>1250</v>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="1" t="n">
+        <v>1251</v>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="1" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="1" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="1" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B1256" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="1" t="n">
+        <v>1255</v>
+      </c>
+      <c r="B1257" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" s="1" t="n">
+        <v>1256</v>
+      </c>
+      <c r="B1258" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" s="1" t="n">
+        <v>1257</v>
+      </c>
+      <c r="B1259" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" s="1" t="n">
+        <v>1258</v>
+      </c>
+      <c r="B1260" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" s="1" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B1261" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" s="1" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B1262" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" s="1" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B1263" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" s="1" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B1264" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" s="1" t="n">
+        <v>1263</v>
+      </c>
+      <c r="B1265" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" s="1" t="n">
+        <v>1264</v>
+      </c>
+      <c r="B1266" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" s="1" t="n">
+        <v>1265</v>
+      </c>
+      <c r="B1267" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" s="1" t="n">
+        <v>1266</v>
+      </c>
+      <c r="B1268" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" s="1" t="n">
+        <v>1267</v>
+      </c>
+      <c r="B1269" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" s="1" t="n">
+        <v>1268</v>
+      </c>
+      <c r="B1270" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" s="1" t="n">
+        <v>1269</v>
+      </c>
+      <c r="B1271" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" s="1" t="n">
+        <v>1270</v>
+      </c>
+      <c r="B1272" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" s="1" t="n">
+        <v>1271</v>
+      </c>
+      <c r="B1273" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" s="1" t="n">
+        <v>1272</v>
+      </c>
+      <c r="B1274" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" s="1" t="n">
+        <v>1273</v>
+      </c>
+      <c r="B1275" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" s="1" t="n">
+        <v>1274</v>
+      </c>
+      <c r="B1276" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1276" t="n">
+        <v>0.2685738994513035</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" s="1" t="n">
+        <v>1275</v>
+      </c>
+      <c r="B1277" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1277" t="n">
+        <v>0.537147798902607</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" s="1" t="n">
+        <v>1276</v>
+      </c>
+      <c r="B1278" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1278" t="n">
+        <v>0.8057216983539105</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" s="1" t="n">
+        <v>1277</v>
+      </c>
+      <c r="B1279" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1279" t="n">
+        <v>0.8057216983539105</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" s="1" t="n">
+        <v>1278</v>
+      </c>
+      <c r="B1280" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1280" t="n">
+        <v>0.8057216983539105</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" s="1" t="n">
+        <v>1279</v>
+      </c>
+      <c r="B1281" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1281" t="n">
+        <v>15.040138369273</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" s="1" t="n">
+        <v>1280</v>
+      </c>
+      <c r="B1282" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1282" t="n">
+        <v>26.58881604567905</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" s="1" t="n">
+        <v>1281</v>
+      </c>
+      <c r="B1283" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1283" t="n">
+        <v>45.12041510781899</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" s="1" t="n">
+        <v>1282</v>
+      </c>
+      <c r="B1284" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1284" t="n">
+        <v>73.05210065075455</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" s="1" t="n">
+        <v>1283</v>
+      </c>
+      <c r="B1285" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1285" t="n">
+        <v>91.3151258134432</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" s="1" t="n">
+        <v>1284</v>
+      </c>
+      <c r="B1286" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1286" t="n">
+        <v>146.7564522001766</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" s="1" t="n">
+        <v>1285</v>
+      </c>
+      <c r="B1287" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1287" t="n">
+        <v>154.3100931222445</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" s="1" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B1288" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1288" t="n">
+        <v>132.3358649853196</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" s="1" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B1289" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1289" t="n">
+        <v>105.4784750401893</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" s="1" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B1290" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1290" t="n">
+        <v>75.47624169125658</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" s="1" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B1291" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1291" t="n">
+        <v>52.28018341810418</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" s="1" t="n">
+        <v>1290</v>
+      </c>
+      <c r="B1292" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1292" t="n">
+        <v>26.16883208256078</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" s="1" t="n">
+        <v>1291</v>
+      </c>
+      <c r="B1293" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1293" t="n">
+        <v>30.04547899360931</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" s="1" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1294" t="n">
+        <v>56.29857766497424</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" s="1" t="n">
+        <v>1293</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1295" t="n">
+        <v>83.64871828615694</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" s="1" t="n">
+        <v>1294</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1296" t="n">
+        <v>115.4913677708887</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" s="1" t="n">
+        <v>1295</v>
+      </c>
+      <c r="B1297" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1297" t="n">
+        <v>177.9692319445285</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" s="1" t="n">
+        <v>1296</v>
+      </c>
+      <c r="B1298" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1298" t="n">
+        <v>166.7515658604376</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" s="1" t="n">
+        <v>1297</v>
+      </c>
+      <c r="B1299" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1299" t="n">
+        <v>169.7252757582512</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" s="1" t="n">
+        <v>1298</v>
+      </c>
+      <c r="B1300" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1300" t="n">
+        <v>168.9329827548699</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" s="1" t="n">
+        <v>1299</v>
+      </c>
+      <c r="B1301" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1301" t="n">
+        <v>151.9680647728626</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" s="1" t="n">
+        <v>1300</v>
+      </c>
+      <c r="B1302" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1302" t="n">
+        <v>120.6344431702105</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" s="1" t="n">
+        <v>1301</v>
+      </c>
+      <c r="B1303" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1303" t="n">
+        <v>91.09131423056712</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" s="1" t="n">
+        <v>1302</v>
+      </c>
+      <c r="B1304" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1304" t="n">
+        <v>102.0133194749201</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" s="1" t="n">
+        <v>1303</v>
+      </c>
+      <c r="B1305" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1305" t="n">
+        <v>123.1142755084775</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" s="1" t="n">
+        <v>1304</v>
+      </c>
+      <c r="B1306" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1306" t="n">
+        <v>176.852928634245</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" s="1" t="n">
+        <v>1305</v>
+      </c>
+      <c r="B1307" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1307" t="n">
+        <v>169.7566093798539</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" s="1" t="n">
+        <v>1306</v>
+      </c>
+      <c r="B1308" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1308" t="n">
+        <v>205.4769380068773</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" s="1" t="n">
+        <v>1307</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1309" t="n">
+        <v>180.4697238135225</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" s="1" t="n">
+        <v>1308</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1310" t="n">
+        <v>176.5127350282733</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" s="1" t="n">
+        <v>1309</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>126.5665158858691</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="1" t="n">
+        <v>1310</v>
+      </c>
+      <c r="B1312" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1312" t="n">
+        <v>107.5126897970182</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="1" t="n">
+        <v>1311</v>
+      </c>
+      <c r="B1313" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1313" t="n">
+        <v>81.46230047357253</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="1" t="n">
+        <v>1312</v>
+      </c>
+      <c r="B1314" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1314" t="n">
+        <v>87.60496923102305</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="1" t="n">
+        <v>1313</v>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1315" t="n">
+        <v>87.60496923102305</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="1" t="n">
+        <v>1314</v>
+      </c>
+      <c r="B1316" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1316" t="n">
+        <v>141.0754747651161</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="1" t="n">
+        <v>1315</v>
+      </c>
+      <c r="B1317" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1317" t="n">
+        <v>150.1072313266642</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="1" t="n">
+        <v>1316</v>
+      </c>
+      <c r="B1318" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1318" t="n">
+        <v>104.6088943746174</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="1" t="n">
+        <v>1317</v>
+      </c>
+      <c r="B1319" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1319" t="n">
+        <v>105.86064058456</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="1" t="n">
+        <v>1318</v>
+      </c>
+      <c r="B1320" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1320" t="n">
+        <v>92.28966539145222</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="1" t="n">
+        <v>1319</v>
+      </c>
+      <c r="B1321" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1321" t="n">
+        <v>78.14892985450841</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="1" t="n">
+        <v>1320</v>
+      </c>
+      <c r="B1322" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1322" t="n">
+        <v>62.70593063605845</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="1" t="n">
+        <v>1321</v>
+      </c>
+      <c r="B1323" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1323" t="n">
+        <v>48.01557779773751</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="1" t="n">
+        <v>1322</v>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>63.48671332946332</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="1" t="n">
+        <v>1323</v>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>65.04444194628087</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="1" t="n">
+        <v>1324</v>
+      </c>
+      <c r="B1326" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>62.37149218507504</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="1" t="n">
+        <v>1325</v>
+      </c>
+      <c r="B1327" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>51.19689958290474</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="1" t="n">
+        <v>1326</v>
+      </c>
+      <c r="B1328" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>47.53758020288073</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="1" t="n">
+        <v>1327</v>
+      </c>
+      <c r="B1329" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>41.55221901510882</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="1" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>137.001464495106</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="1" t="n">
+        <v>1329</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>161.1731154457233</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="1" t="n">
+        <v>1330</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1332" t="n">
+        <v>204.6820871568345</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="1" t="n">
+        <v>1331</v>
+      </c>
+      <c r="B1333" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>193.027898305644</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="1" t="n">
+        <v>1332</v>
+      </c>
+      <c r="B1334" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1334" t="n">
+        <v>175.5194379080804</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="1" t="n">
+        <v>1333</v>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1335" t="n">
+        <v>162.5191822513067</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="1" t="n">
+        <v>1334</v>
+      </c>
+      <c r="B1336" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>Vigia</t>
+        </is>
+      </c>
+      <c r="D1336" t="n">
+        <v>155.4595254657295</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="1" t="n">
+        <v>1335</v>
+      </c>
+      <c r="B1337" t="inlineStr">
+        <is>
+          <t>18/03/2020</t>
+        </is>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="1" t="n">
+        <v>1336</v>
+      </c>
+      <c r="B1338" t="inlineStr">
+        <is>
+          <t>19/03/2020</t>
+        </is>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="1" t="n">
+        <v>1337</v>
+      </c>
+      <c r="B1339" t="inlineStr">
+        <is>
+          <t>20/03/2020</t>
+        </is>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="1" t="n">
+        <v>1338</v>
+      </c>
+      <c r="B1340" t="inlineStr">
+        <is>
+          <t>21/03/2020</t>
+        </is>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="1" t="n">
+        <v>1339</v>
+      </c>
+      <c r="B1341" t="inlineStr">
+        <is>
+          <t>22/03/2020</t>
+        </is>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="1" t="n">
+        <v>1340</v>
+      </c>
+      <c r="B1342" t="inlineStr">
+        <is>
+          <t>23/03/2020</t>
+        </is>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="1" t="n">
+        <v>1341</v>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>24/03/2020</t>
+        </is>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="1" t="n">
+        <v>1342</v>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>25/03/2020</t>
+        </is>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="1" t="n">
+        <v>1343</v>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>26/03/2020</t>
+        </is>
+      </c>
+      <c r="C1345" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="1" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>27/03/2020</t>
+        </is>
+      </c>
+      <c r="C1346" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="1" t="n">
+        <v>1345</v>
+      </c>
+      <c r="B1347" t="inlineStr">
+        <is>
+          <t>28/03/2020</t>
+        </is>
+      </c>
+      <c r="C1347" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="1" t="n">
+        <v>1346</v>
+      </c>
+      <c r="B1348" t="inlineStr">
+        <is>
+          <t>29/03/2020</t>
+        </is>
+      </c>
+      <c r="C1348" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="1" t="n">
+        <v>1347</v>
+      </c>
+      <c r="B1349" t="inlineStr">
+        <is>
+          <t>30/03/2020</t>
+        </is>
+      </c>
+      <c r="C1349" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="1" t="n">
+        <v>1348</v>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>31/03/2020</t>
+        </is>
+      </c>
+      <c r="C1350" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="1" t="n">
+        <v>1349</v>
+      </c>
+      <c r="B1351" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="C1351" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="1" t="n">
+        <v>1350</v>
+      </c>
+      <c r="B1352" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="C1352" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="1" t="n">
+        <v>1351</v>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="C1353" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="1" t="n">
+        <v>1352</v>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="C1354" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="1" t="n">
+        <v>1353</v>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="C1355" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="1" t="n">
+        <v>1354</v>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="C1356" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="1" t="n">
+        <v>1355</v>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>07/04/2020</t>
+        </is>
+      </c>
+      <c r="C1357" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1357" t="n">
+        <v>0.460265296917143</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="1" t="n">
+        <v>1356</v>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
+          <t>08/04/2020</t>
+        </is>
+      </c>
+      <c r="C1358" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1358" t="n">
+        <v>0.920530593834286</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="1" t="n">
+        <v>1357</v>
+      </c>
+      <c r="B1359" t="inlineStr">
+        <is>
+          <t>09/04/2020</t>
+        </is>
+      </c>
+      <c r="C1359" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1359" t="n">
+        <v>1.380795890751429</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="1" t="n">
+        <v>1358</v>
+      </c>
+      <c r="B1360" t="inlineStr">
+        <is>
+          <t>10/04/2020</t>
+        </is>
+      </c>
+      <c r="C1360" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1360" t="n">
+        <v>1.380795890751429</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="1" t="n">
+        <v>1359</v>
+      </c>
+      <c r="B1361" t="inlineStr">
+        <is>
+          <t>11/04/2020</t>
+        </is>
+      </c>
+      <c r="C1361" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1361" t="n">
+        <v>3.682122375337144</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="1" t="n">
+        <v>1360</v>
+      </c>
+      <c r="B1362" t="inlineStr">
+        <is>
+          <t>12/04/2020</t>
+        </is>
+      </c>
+      <c r="C1362" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1362" t="n">
+        <v>4.60265296917143</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="1" t="n">
+        <v>1361</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>13/04/2020</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1363" t="n">
+        <v>5.523183563005716</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="1" t="n">
+        <v>1362</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>14/04/2020</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1364" t="n">
+        <v>4.60265296917143</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="1" t="n">
+        <v>1363</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>15/04/2020</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1365" t="n">
+        <v>3.682122375337144</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="1" t="n">
+        <v>1364</v>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>16/04/2020</t>
+        </is>
+      </c>
+      <c r="C1366" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1366" t="n">
+        <v>2.761591781502858</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="1" t="n">
+        <v>1365</v>
+      </c>
+      <c r="B1367" t="inlineStr">
+        <is>
+          <t>17/04/2020</t>
+        </is>
+      </c>
+      <c r="C1367" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1367" t="n">
+        <v>5.523183563005716</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="1" t="n">
+        <v>1366</v>
+      </c>
+      <c r="B1368" t="inlineStr">
+        <is>
+          <t>18/04/2020</t>
+        </is>
+      </c>
+      <c r="C1368" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1368" t="n">
+        <v>9.20530593834286</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="1" t="n">
+        <v>1367</v>
+      </c>
+      <c r="B1369" t="inlineStr">
+        <is>
+          <t>19/04/2020</t>
+        </is>
+      </c>
+      <c r="C1369" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1369" t="n">
+        <v>16.10928539210001</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="1" t="n">
+        <v>1368</v>
+      </c>
+      <c r="B1370" t="inlineStr">
+        <is>
+          <t>20/04/2020</t>
+        </is>
+      </c>
+      <c r="C1370" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1370" t="n">
+        <v>32.21857078420001</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="1" t="n">
+        <v>1369</v>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1371" t="n">
+        <v>35.90069315953716</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="1" t="n">
+        <v>1370</v>
+      </c>
+      <c r="B1372" t="inlineStr">
+        <is>
+          <t>22/04/2020</t>
+        </is>
+      </c>
+      <c r="C1372" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1372" t="n">
+        <v>78.24510047591431</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="1" t="n">
+        <v>1371</v>
+      </c>
+      <c r="B1373" t="inlineStr">
+        <is>
+          <t>23/04/2020</t>
+        </is>
+      </c>
+      <c r="C1373" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1373" t="n">
+        <v>122.6607016284186</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="1" t="n">
+        <v>1372</v>
+      </c>
+      <c r="B1374" t="inlineStr">
+        <is>
+          <t>24/04/2020</t>
+        </is>
+      </c>
+      <c r="C1374" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1374" t="n">
+        <v>194.6922205959515</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="1" t="n">
+        <v>1373</v>
+      </c>
+      <c r="B1375" t="inlineStr">
+        <is>
+          <t>25/04/2020</t>
+        </is>
+      </c>
+      <c r="C1375" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1375" t="n">
+        <v>209.8809753942172</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="1" t="n">
+        <v>1374</v>
+      </c>
+      <c r="B1376" t="inlineStr">
+        <is>
+          <t>26/04/2020</t>
+        </is>
+      </c>
+      <c r="C1376" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1376" t="n">
+        <v>231.9737096462401</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="1" t="n">
+        <v>1375</v>
+      </c>
+      <c r="B1377" t="inlineStr">
+        <is>
+          <t>27/04/2020</t>
+        </is>
+      </c>
+      <c r="C1377" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1377" t="n">
+        <v>233.8147708339087</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="1" t="n">
+        <v>1376</v>
+      </c>
+      <c r="B1378" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C1378" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1378" t="n">
+        <v>272.5428079602226</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="1" t="n">
+        <v>1377</v>
+      </c>
+      <c r="B1379" t="inlineStr">
+        <is>
+          <t>29/04/2020</t>
+        </is>
+      </c>
+      <c r="C1379" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1379" t="n">
+        <v>254.2308243614477</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="1" t="n">
+        <v>1378</v>
+      </c>
+      <c r="B1380" t="inlineStr">
+        <is>
+          <t>30/04/2020</t>
+        </is>
+      </c>
+      <c r="C1380" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1380" t="n">
+        <v>239.2327509004762</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="1" t="n">
+        <v>1379</v>
+      </c>
+      <c r="B1381" t="inlineStr">
+        <is>
+          <t>01/05/2020</t>
+        </is>
+      </c>
+      <c r="C1381" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1381" t="n">
+        <v>200.0532154352817</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="1" t="n">
+        <v>1380</v>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="C1382" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1382" t="n">
+        <v>195.6280933663497</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="1" t="n">
+        <v>1381</v>
+      </c>
+      <c r="B1383" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="C1383" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1383" t="n">
+        <v>217.652485195497</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="1" t="n">
+        <v>1382</v>
+      </c>
+      <c r="B1384" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="C1384" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1384" t="n">
+        <v>219.3352430158925</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="1" t="n">
+        <v>1383</v>
+      </c>
+      <c r="B1385" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="C1385" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1385" t="n">
+        <v>272.0351213902898</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="1" t="n">
+        <v>1384</v>
+      </c>
+      <c r="B1386" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="C1386" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1386" t="n">
+        <v>260.0267798688169</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="1" t="n">
+        <v>1385</v>
+      </c>
+      <c r="B1387" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C1387" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1387" t="n">
+        <v>307.6957194490541</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="1" t="n">
+        <v>1386</v>
+      </c>
+      <c r="B1388" t="inlineStr">
+        <is>
+          <t>08/05/2020</t>
+        </is>
+      </c>
+      <c r="C1388" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1388" t="n">
+        <v>275.29627946919</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="1" t="n">
+        <v>1387</v>
+      </c>
+      <c r="B1389" t="inlineStr">
+        <is>
+          <t>09/05/2020</t>
+        </is>
+      </c>
+      <c r="C1389" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1389" t="n">
+        <v>298.5134418888749</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="1" t="n">
+        <v>1388</v>
+      </c>
+      <c r="B1390" t="inlineStr">
+        <is>
+          <t>10/05/2020</t>
+        </is>
+      </c>
+      <c r="C1390" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1390" t="n">
+        <v>277.9389181306975</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="1" t="n">
+        <v>1389</v>
+      </c>
+      <c r="B1391" t="inlineStr">
+        <is>
+          <t>11/05/2020</t>
+        </is>
+      </c>
+      <c r="C1391" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1391" t="n">
+        <v>317.9475380947728</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="1" t="n">
+        <v>1390</v>
+      </c>
+      <c r="B1392" t="inlineStr">
+        <is>
+          <t>12/05/2020</t>
+        </is>
+      </c>
+      <c r="C1392" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1392" t="n">
+        <v>269.9423570725182</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="1" t="n">
+        <v>1391</v>
+      </c>
+      <c r="B1393" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C1393" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1393" t="n">
+        <v>290.2394612081029</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="1" t="n">
+        <v>1392</v>
+      </c>
+      <c r="B1394" t="inlineStr">
+        <is>
+          <t>14/05/2020</t>
+        </is>
+      </c>
+      <c r="C1394" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1394" t="n">
+        <v>272.1397220168851</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="1" t="n">
+        <v>1393</v>
+      </c>
+      <c r="B1395" t="inlineStr">
+        <is>
+          <t>15/05/2020</t>
+        </is>
+      </c>
+      <c r="C1395" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1395" t="n">
+        <v>273.4216869476631</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="1" t="n">
+        <v>1394</v>
+      </c>
+      <c r="B1396" t="inlineStr">
+        <is>
+          <t>16/05/2020</t>
+        </is>
+      </c>
+      <c r="C1396" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1396" t="n">
+        <v>327.0890827916592</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B1397" t="inlineStr">
+        <is>
+          <t>17/05/2020</t>
+        </is>
+      </c>
+      <c r="C1397" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1397" t="n">
+        <v>337.4268022186872</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="1" t="n">
+        <v>1396</v>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>18/05/2020</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1398" t="n">
+        <v>352.6907997489051</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="1" t="n">
+        <v>1397</v>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>19/05/2020</t>
+        </is>
+      </c>
+      <c r="C1399" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1399" t="n">
+        <v>309.3056569864286</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="1" t="n">
+        <v>1398</v>
+      </c>
+      <c r="B1400" t="inlineStr">
+        <is>
+          <t>20/05/2020</t>
+        </is>
+      </c>
+      <c r="C1400" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1400" t="n">
+        <v>268.4340986201863</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B1401" t="inlineStr">
+        <is>
+          <t>21/05/2020</t>
+        </is>
+      </c>
+      <c r="C1401" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1401" t="n">
+        <v>246.0528120203357</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="B1402" t="inlineStr">
+        <is>
+          <t>22/05/2020</t>
+        </is>
+      </c>
+      <c r="C1402" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1402" t="n">
+        <v>224.2012342534283</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="1" t="n">
+        <v>1401</v>
+      </c>
+      <c r="B1403" t="inlineStr">
+        <is>
+          <t>23/05/2020</t>
+        </is>
+      </c>
+      <c r="C1403" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1403" t="n">
+        <v>176.6046795526788</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="1" t="n">
+        <v>1402</v>
+      </c>
+      <c r="B1404" t="inlineStr">
+        <is>
+          <t>24/05/2020</t>
+        </is>
+      </c>
+      <c r="C1404" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1404" t="n">
+        <v>142.7471512528539</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="1" t="n">
+        <v>1403</v>
+      </c>
+      <c r="B1405" t="inlineStr">
+        <is>
+          <t>25/05/2020</t>
+        </is>
+      </c>
+      <c r="C1405" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1405" t="n">
+        <v>128.2133893771242</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="1" t="n">
+        <v>1404</v>
+      </c>
+      <c r="B1406" t="inlineStr">
+        <is>
+          <t>26/05/2020</t>
+        </is>
+      </c>
+      <c r="C1406" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1406" t="n">
+        <v>129.2224325280579</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="1" t="n">
+        <v>1405</v>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>27/05/2020</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1407" t="n">
+        <v>257.5110575787165</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="1" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B1408" t="inlineStr">
+        <is>
+          <t>28/05/2020</t>
+        </is>
+      </c>
+      <c r="C1408" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1408" t="n">
+        <v>559.8552005375898</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="1" t="n">
+        <v>1407</v>
+      </c>
+      <c r="B1409" t="inlineStr">
+        <is>
+          <t>29/05/2020</t>
+        </is>
+      </c>
+      <c r="C1409" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1409" t="n">
+        <v>888.5421556985448</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="1" t="n">
+        <v>1408</v>
+      </c>
+      <c r="B1410" t="inlineStr">
+        <is>
+          <t>30/05/2020</t>
+        </is>
+      </c>
+      <c r="C1410" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1410" t="n">
+        <v>976.6062491753581</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B1411" t="inlineStr">
+        <is>
+          <t>31/05/2020</t>
+        </is>
+      </c>
+      <c r="C1411" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1411" t="n">
+        <v>1046.336441658305</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="1" t="n">
+        <v>1410</v>
+      </c>
+      <c r="B1412" t="inlineStr">
+        <is>
+          <t>01/06/2020</t>
+        </is>
+      </c>
+      <c r="C1412" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1412" t="n">
+        <v>1033.203538519603</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="1" t="n">
+        <v>1411</v>
+      </c>
+      <c r="B1413" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="C1413" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1413" t="n">
+        <v>1065.539586541492</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="1" t="n">
+        <v>1412</v>
+      </c>
+      <c r="B1414" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="C1414" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1414" t="n">
+        <v>965.8023249680483</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="1" t="n">
+        <v>1413</v>
+      </c>
+      <c r="B1415" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="C1415" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1415" t="n">
+        <v>694.3069212200139</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="1" t="n">
+        <v>1414</v>
+      </c>
+      <c r="B1416" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="C1416" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1416" t="n">
+        <v>487.5477452309738</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="1" t="n">
+        <v>1415</v>
+      </c>
+      <c r="B1417" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="C1417" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1417" t="n">
+        <v>422.9362287939252</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="1" t="n">
+        <v>1416</v>
+      </c>
+      <c r="B1418" t="inlineStr">
+        <is>
+          <t>07/06/2020</t>
+        </is>
+      </c>
+      <c r="C1418" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1418" t="n">
+        <v>303.9340737899661</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="1" t="n">
+        <v>1417</v>
+      </c>
+      <c r="B1419" t="inlineStr">
+        <is>
+          <t>08/06/2020</t>
+        </is>
+      </c>
+      <c r="C1419" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1419" t="n">
+        <v>330.1025027943687</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="1" t="n">
+        <v>1418</v>
+      </c>
+      <c r="B1420" t="inlineStr">
+        <is>
+          <t>09/06/2020</t>
+        </is>
+      </c>
+      <c r="C1420" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1420" t="n">
+        <v>342.0251003185701</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="1" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B1421" t="inlineStr">
+        <is>
+          <t>10/06/2020</t>
+        </is>
+      </c>
+      <c r="C1421" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1421" t="n">
+        <v>324.9368965661521</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="1" t="n">
+        <v>1420</v>
+      </c>
+      <c r="B1422" t="inlineStr">
+        <is>
+          <t>11/06/2020</t>
+        </is>
+      </c>
+      <c r="C1422" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1422" t="n">
+        <v>218.9556062213525</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="1" t="n">
+        <v>1421</v>
+      </c>
+      <c r="B1423" t="inlineStr">
+        <is>
+          <t>12/06/2020</t>
+        </is>
+      </c>
+      <c r="C1423" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1423" t="n">
+        <v>160.588939233055</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="1" t="n">
+        <v>1422</v>
+      </c>
+      <c r="B1424" t="inlineStr">
+        <is>
+          <t>13/06/2020</t>
+        </is>
+      </c>
+      <c r="C1424" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1424" t="n">
+        <v>118.5687546361102</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="1" t="n">
+        <v>1423</v>
+      </c>
+      <c r="B1425" t="inlineStr">
+        <is>
+          <t>14/06/2020</t>
+        </is>
+      </c>
+      <c r="C1425" t="inlineStr">
+        <is>
+          <t>Santo Antônio do Tauá</t>
+        </is>
+      </c>
+      <c r="D1425" t="n">
+        <v>102.7986120943702</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
